--- a/data/income_statement/2digits/size/42_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/42_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>42-Civil engineering</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>42-Civil engineering</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1172 +841,1322 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4911612.12526</v>
+        <v>5957714.069449999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>6011408.07946</v>
+        <v>7209164.306989999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>7027720.701579999</v>
+        <v>8191424.463879999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>8795531.851880001</v>
+        <v>10076812.76512</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>9753550.28624</v>
+        <v>11566828.15864</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>10769925.29418</v>
+        <v>12830496.63314</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>10460727.11507</v>
+        <v>13735211.29216</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>16794579.55533</v>
+        <v>19150605.48633</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>16983476.31658</v>
+        <v>19595187.68828</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>21817585.57124</v>
+        <v>25279876.10172</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>22391965.89278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>27218847.8381</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>25513578.139</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4693116.7046</v>
+        <v>5618064.500779999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>5402911.147369999</v>
+        <v>6428322.74318</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>6445957.182979999</v>
+        <v>7523462.15033</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>8501133.407470001</v>
+        <v>9712260.285119999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>9294019.040359998</v>
+        <v>10933727.9372</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>9537161.227439998</v>
+        <v>11473948.95733</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>10097844.88048</v>
+        <v>13182285.2459</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>15131102.58649</v>
+        <v>17279457.67476</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>15923414.11694</v>
+        <v>18323586.68378</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>20345426.91878</v>
+        <v>23659815.86756</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>21356916.94429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>26064924.21938</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>23081101.402</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>138950.21917</v>
+        <v>216196.61863</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>463869.23682</v>
+        <v>625036.88246</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>435560.75067</v>
+        <v>494914.87874</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>146645.73034</v>
+        <v>199860.03387</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>250033.38048</v>
+        <v>329074.38306</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1069371.25801</v>
+        <v>1123293.87264</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>178950.35575</v>
+        <v>232952.26302</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1381090.13793</v>
+        <v>1460284.73385</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>782961.5135400001</v>
+        <v>883649.81868</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1160529.9561</v>
+        <v>1230809.93965</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>718412.5736500002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>703419.31992</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1809162.316</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>79545.20148999999</v>
+        <v>123452.95004</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>144627.69527</v>
+        <v>155804.68135</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>146202.76793</v>
+        <v>173047.43481</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>147752.71407</v>
+        <v>164692.44613</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>209497.8654</v>
+        <v>304025.83838</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>163392.80873</v>
+        <v>233253.80317</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>183931.87884</v>
+        <v>319973.78324</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>282386.83091</v>
+        <v>410863.0777199999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>277100.6861</v>
+        <v>387951.18582</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>311628.69636</v>
+        <v>389250.29451</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>316636.3748399999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>450504.2987999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>623314.421</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>10682.10207</v>
+        <v>21422.21082</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>15969.92515</v>
+        <v>34249.14954999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>14888.31582</v>
+        <v>16085.20951</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>23896.09534</v>
+        <v>23785.67153</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>11620.28586</v>
+        <v>15908.85592</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>24650.84071</v>
+        <v>24798.03582</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>41520.57489</v>
+        <v>39035.93997</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1582404.43065</v>
+        <v>1593993.21423</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>49760.91561</v>
+        <v>60663.59044</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>113509.5601</v>
+        <v>136655.09998</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>84683.52975</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>127342.02556</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>456776.241</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>9694.277719999998</v>
+        <v>12143.96415</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5873.27657</v>
+        <v>23178.21711</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>12095.93063</v>
+        <v>13182.62568</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>11393.07531</v>
+        <v>12207.18837</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>7634.31458</v>
+        <v>11545.0868</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>17478.27131</v>
+        <v>17745.69131</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>39072.62585</v>
+        <v>37043.15265</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1580043.41988</v>
+        <v>1589523.1836</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>44193.46906999999</v>
+        <v>52561.51319</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>101313.52909</v>
+        <v>115606.6122</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>75360.63252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>85819.92590999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>438155.616</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>954.62185</v>
+        <v>2154.58545</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>4508.037199999999</v>
+        <v>5431.578310000001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>746.08901</v>
+        <v>758.80402</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>856.59855</v>
+        <v>1145.88584</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>722.21303</v>
+        <v>697.5893599999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>928.99963</v>
+        <v>832.3511200000002</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1353.76836</v>
+        <v>1398.81264</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>495.11009</v>
+        <v>604.69425</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>3502.09281</v>
+        <v>4022.07239</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>7278.31898</v>
+        <v>13678.041</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>7105.13433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>20194.60449</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>13895.922</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>33.2025</v>
+        <v>7123.66122</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>5588.61138</v>
+        <v>5639.35413</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2046.29618</v>
+        <v>2143.77981</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>11646.42148</v>
+        <v>10432.59732</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>3263.75825</v>
+        <v>3666.17976</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>6243.569769999999</v>
+        <v>6219.993390000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1094.18068</v>
+        <v>593.9746799999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1865.90068</v>
+        <v>3865.33638</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2065.35373</v>
+        <v>4080.00486</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>4917.712030000001</v>
+        <v>7370.446779999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2217.7629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>21327.49516</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>4724.703</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4900930.02319</v>
+        <v>5936291.85863</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>5995438.154309999</v>
+        <v>7174915.157439999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>7012832.38576</v>
+        <v>8175339.25437</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>8771635.756539999</v>
+        <v>10053027.09359</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>9741930.000380002</v>
+        <v>11550919.30272</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>10745274.45347</v>
+        <v>12805698.59732</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>10419206.54018</v>
+        <v>13696175.35219</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>15212175.12468</v>
+        <v>17556612.2721</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>16933715.40097</v>
+        <v>19534524.09784</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>21704076.01114</v>
+        <v>25143221.00174</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>22307282.36303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>27091505.81254</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>25056801.898</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>4342535.41802</v>
+        <v>5239732.002180001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>5438264.36108</v>
+        <v>6436197.72509</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>6220172.04313</v>
+        <v>7277143.99361</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>8004334.93016</v>
+        <v>9185842.39689</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>8827809.773250001</v>
+        <v>10569579.67792</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>9895256.554100003</v>
+        <v>11925119.53958</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>9484820.082969999</v>
+        <v>12521761.95288</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>13954130.31548</v>
+        <v>16200159.43848</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>15817522.19541</v>
+        <v>18247704.13781</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>20426104.0225</v>
+        <v>23287469.78443</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>20777770.13997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>25015969.28763</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>22891020.128</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>217759.39308</v>
+        <v>270819.51327</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>322212.10659</v>
+        <v>399748.8697</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>362899.36956</v>
+        <v>442861.84386</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>415714.6205</v>
+        <v>549132.0939</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>535848.51064</v>
+        <v>612738.78772</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>602515.7102600001</v>
+        <v>714191.8874300001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>686837.84546</v>
+        <v>879329.4745</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>736578.6655499999</v>
+        <v>920887.43495</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>985785.6966199998</v>
+        <v>1250905.54747</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1395460.79265</v>
+        <v>1693348.35799</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1074132.51185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1389705.36608</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1974800.155</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>368761.21095</v>
+        <v>507728.23259</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>444730.10124</v>
+        <v>575492.24847</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>666634.10799</v>
+        <v>840076.40305</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>577382.90685</v>
+        <v>672592.0125500001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>928487.7193400001</v>
+        <v>1131169.39902</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1432994.40224</v>
+        <v>1540042.86724</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1654688.81357</v>
+        <v>1859443.1349</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2040452.80874</v>
+        <v>2207048.002069999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3045090.610069999</v>
+        <v>3385193.04491</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2457750.05257</v>
+        <v>2855227.73572</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3321930.97353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3523310.99495</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>4086182.501</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>3732171.54735</v>
+        <v>4428783.77908</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>4661890.516770001</v>
+        <v>5447064.81226</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>5132531.77254</v>
+        <v>5935423.81954</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>6981234.03546</v>
+        <v>7917731.518390001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>7342383.23805</v>
+        <v>8779061.55146</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>7686332.02094</v>
+        <v>9444244.632409999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>7086272.925609999</v>
+        <v>9658061.79232</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>11077723.68486</v>
+        <v>12920568.30202</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>11677082.32804</v>
+        <v>13485859.4054</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>16452891.75105</v>
+        <v>18570937.97012</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>16254260.6352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>19976628.69112</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>16722959.718</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>23843.26664</v>
+        <v>32400.47724</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>9431.636479999999</v>
+        <v>13891.79466</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>58106.79304</v>
+        <v>58781.92716000001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>30003.36735</v>
+        <v>46386.77205</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>21090.30522</v>
+        <v>46609.93972</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>173414.42066</v>
+        <v>226640.1525</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>57020.49832999999</v>
+        <v>124927.55116</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>99375.15633000001</v>
+        <v>151655.69944</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>109563.56068</v>
+        <v>125746.14003</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>120001.42623</v>
+        <v>167955.7206</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>127446.01939</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>126324.23548</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>107077.754</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>558394.60517</v>
+        <v>696559.8564500001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>557173.7932300001</v>
+        <v>738717.43235</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>792660.3426300001</v>
+        <v>898195.26076</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>767300.82638</v>
+        <v>867184.6967000001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>914120.22713</v>
+        <v>981339.6248</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>850017.89937</v>
+        <v>880579.05774</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>934386.45721</v>
+        <v>1174413.39931</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1258044.8092</v>
+        <v>1356452.83362</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1116193.20556</v>
+        <v>1286819.96003</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1277971.98864</v>
+        <v>1855751.21731</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1529512.22306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2075536.52491</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2165781.77</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>254530.64441</v>
+        <v>287959.16539</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>299950.22192</v>
+        <v>365674.79029</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>464313.18134</v>
+        <v>483835.05817</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>456533.55521</v>
+        <v>495978.1313</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>551259.1368</v>
+        <v>588167.35588</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>535330.85539</v>
+        <v>543304.75365</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>616290.13271</v>
+        <v>657695.03377</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>700728.99711</v>
+        <v>776728.4464400001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>724470.2722100001</v>
+        <v>797855.7259600001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>846369.82053</v>
+        <v>964289.8567799999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>833508.9052200001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1365232.62184</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1072115.725</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2692.16567</v>
+        <v>2691.39109</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>832.8500299999999</v>
+        <v>40.22061</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>585.8409399999999</v>
+        <v>1093.14094</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>2363.34198</v>
+        <v>2009.54219</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1901.14748</v>
+        <v>2410.12557</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>5656.794699999999</v>
+        <v>5645.278369999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>538.53498</v>
+        <v>386.56879</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1436.25535</v>
+        <v>930.59604</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1037.76125</v>
+        <v>792.91675</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>348.72435</v>
+        <v>364.19449</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1532.50577</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>120.24249</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2042.457</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>24806.4013</v>
+        <v>27508.3289</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>27612.45994</v>
+        <v>39010.90672</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>58725.96243</v>
+        <v>63828.87900000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>57850.3177</v>
+        <v>72348.0827</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>73399.09134999999</v>
+        <v>85175.64219</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>81124.73899</v>
+        <v>82076.13451</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>72547.92906000001</v>
+        <v>72843.19067999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>60276.10285</v>
+        <v>69438.88696999999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>71115.31642</v>
+        <v>74442.93649000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>75462.89946000002</v>
+        <v>83206.72975</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>88577.51890000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>77660.87902000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>70568.00599999999</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>227032.07744</v>
+        <v>257759.4454</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>271504.91195</v>
+        <v>326623.66296</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>405001.37797</v>
+        <v>418913.03823</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>396319.89553</v>
+        <v>421620.50641</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>475958.89797</v>
+        <v>500581.58812</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>448549.3217</v>
+        <v>455583.34077</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>543203.6686699999</v>
+        <v>584465.2742999999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>639016.6389100001</v>
+        <v>706358.9634300001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>652317.1945399999</v>
+        <v>722619.87272</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>770558.1967200001</v>
+        <v>880718.93254</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>743398.8805500001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1287451.50033</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>999505.262</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>303863.96076</v>
+        <v>408600.69106</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>257223.57131</v>
+        <v>373042.64206</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>328347.16129</v>
+        <v>414360.2025900001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>310767.27117</v>
+        <v>371206.5654</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>362861.09033</v>
+        <v>393172.2689199999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>314687.04398</v>
+        <v>337274.3040899999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>318096.3245</v>
+        <v>516718.36554</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>557315.81209</v>
+        <v>579724.38718</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>391722.9333499999</v>
+        <v>488964.2340700001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>431602.16811</v>
+        <v>891461.3605299999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>696003.31784</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>710303.9030699999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1093666.045</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>140053.28677</v>
+        <v>322759.6755</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>168842.34459</v>
+        <v>531557.4672599999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>161715.19519</v>
+        <v>807544.0149399999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>176539.51703</v>
+        <v>652904.8353100001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>230725.75977</v>
+        <v>544422.14085</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>300958.49373</v>
+        <v>819396.1633500002</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>356811.81906</v>
+        <v>923056.74428</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>491870.74992</v>
+        <v>1676648.68023</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>459091.00267</v>
+        <v>1143372.78513</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1581092.10156</v>
+        <v>5762051.665309999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1005810.7817</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2752034.1213</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4625009.122</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>17674.97874</v>
+        <v>104535.77123</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>19317.68269</v>
+        <v>170188.17977</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>13950.34247</v>
+        <v>271303.82626</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>13561.30571</v>
+        <v>146298.07255</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>21671.92104</v>
+        <v>101660.51514</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>52033.81837000001</v>
+        <v>87378.80905</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>16208.46779</v>
+        <v>66616.04049</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>57925.95448</v>
+        <v>37290.40966</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>27470.63409</v>
+        <v>76217.31523000001</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>56414.13359</v>
+        <v>49050.98587</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>106266.3837</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>273689.01051</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>55074.145</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>3094.75971</v>
+        <v>20540.21378</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>9308.915319999998</v>
+        <v>21479.38283</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>7376.44499</v>
+        <v>44160.60419</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>10863.39051</v>
+        <v>13707.27253</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>8430.704469999999</v>
+        <v>66233.05334</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>8981.66266</v>
+        <v>16852.21625</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>17225.72789</v>
+        <v>56465.03698</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>32793.51196</v>
+        <v>51890.3686</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>41874.17418</v>
+        <v>68439.24437999999</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>84746.86099</v>
+        <v>121808.00428</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>26652.41861</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>183058.08222</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>174938.142</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>31900.76099</v>
+        <v>54543.37334000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>23156.48644</v>
+        <v>64299.62864</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>19836.83102000001</v>
+        <v>79546.25449000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>32682.87159</v>
+        <v>117466.44788</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>36724.67482</v>
+        <v>110477.47279</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>40909.43044</v>
+        <v>164218.2854</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>56884.56490999999</v>
+        <v>134354.28346</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>73663.17182</v>
+        <v>128250.60247</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>73628.24425</v>
+        <v>182798.1041</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>160140.55453</v>
+        <v>353565.1356699999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>189766.2799</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>494794.6206</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>283745.421</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>447.00564</v>
+        <v>471.72238</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>464.20196</v>
+        <v>877.9229</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>741.1356699999999</v>
+        <v>2562.06157</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>33.72048</v>
+        <v>1471.49525</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>643.93699</v>
+        <v>606.63931</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1336.60888</v>
+        <v>39.01223</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>397.28794</v>
+        <v>977.6564700000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1052.11126</v>
+        <v>850.87096</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>923.92548</v>
+        <v>191.11314</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>249.73952</v>
+        <v>250.10039</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>980.9107700000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>999.7833200000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>6542.2</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>565.70834</v>
+        <v>312.40924</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>3957.0578</v>
+        <v>1103.83467</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>4018.72228</v>
+        <v>631.21018</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>4171.88666</v>
+        <v>765.0863900000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>4867.75061</v>
+        <v>1629.77362</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>984.16521</v>
+        <v>659.04079</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1038.51271</v>
+        <v>7167.28843</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1742.92275</v>
+        <v>721.0230799999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>7367.646640000001</v>
+        <v>4933.32823</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2460.80962</v>
+        <v>4108.87324</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1471.94066</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3688.24168</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>5884.248</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1345.99279</v>
+        <v>2298.11229</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>7622.595170000001</v>
+        <v>5418.52941</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>686.8638500000001</v>
+        <v>2974.95284</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>754.1990800000001</v>
+        <v>8255.50857</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1183.72775</v>
+        <v>3214.90568</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2030.35467</v>
+        <v>13109.60971</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2741.287139999999</v>
+        <v>15393.34802</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1693.24309</v>
+        <v>1604.36815</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>2347.0683</v>
+        <v>3862.6085</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>13234.32038</v>
+        <v>5774.97841</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>12362.67327</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>25074.42377</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>7432.445</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>31063.59275</v>
+        <v>79003.28693999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>45715.47797</v>
+        <v>194703.19312</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>93281.40617</v>
+        <v>364803.95711</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>30263.37234</v>
+        <v>286603.71654</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>119190.18512</v>
+        <v>190123.26172</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>102950.53685</v>
+        <v>339164.31467</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>220980.76732</v>
+        <v>544861.84663</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>245987.46314</v>
+        <v>1265452.02232</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>210441.58861</v>
+        <v>592851.73807</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1061449.47908</v>
+        <v>4752954.85788</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>498196.72542</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1397678.67839</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2960116.787</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>2394.44871</v>
+        <v>802.3732699999999</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>481.70126</v>
+        <v>121.55182</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>299.735</v>
+        <v>300.45946</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>336.32725</v>
+        <v>329.9124</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>610.0167299999999</v>
+        <v>32.35172</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>802.20287</v>
+        <v>983.2673199999999</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>647.26428</v>
+        <v>1802.26809</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>5.0765</v>
+        <v>1581.80304</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>69.69119000000001</v>
+        <v>280.97846</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>20.1381</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>41.28259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>1085.17474</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>2978.297</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>35351.84366</v>
+        <v>35415.3753</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>40451.99903</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>88.26375</v>
+        <v>392.7369200000001</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>38345.44264</v>
+        <v>38410.19916</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>2304.46</v>
+        <v>4092.58832</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>172.2892</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>0</v>
+        <v>223.80195</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>0.00793</v>
+        <v>560.9406300000001</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>1669.47713</v>
+        <v>1595.4252</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>46.7276</v>
@@ -2113,287 +2164,327 @@
       <c r="M34" s="48" t="n">
         <v>24.05322</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>16214.19544</v>
+        <v>24837.03773</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>18366.22695</v>
+        <v>32913.24507</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>21435.44999</v>
+        <v>40867.95192</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>45527.00077000001</v>
+        <v>39597.12404</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>35098.38223999999</v>
+        <v>66351.57921</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>90757.42457999999</v>
+        <v>196819.31873</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>40687.93908</v>
+        <v>95195.17375999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>77007.28699000001</v>
+        <v>188446.27132</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>93298.5528</v>
+        <v>212202.92982</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>202329.33815</v>
+        <v>474471.86387</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>170048.11356</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>371942.05285</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1128297.437</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>98233.57949</v>
+        <v>153103.48745</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>105712.45292</v>
+        <v>230611.67459</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>107985.33162</v>
+        <v>308504.11083</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>79355.86366</v>
+        <v>378843.99903</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>167158.89065</v>
+        <v>327382.9764700001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>192360.45045</v>
+        <v>471290.66473</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>271327.76862</v>
+        <v>691790.59948</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>325069.67093</v>
+        <v>1488449.23679</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>294599.04449</v>
+        <v>883901.6958400001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1530571.04434</v>
+        <v>5816092.94296</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>723457.93728</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>4261005.03993</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3678364.278</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>260.84503</v>
+        <v>494.6977400000001</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>504.01233</v>
+        <v>827.03536</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>918.56944</v>
+        <v>812.17097</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1374.21122</v>
+        <v>1379.70638</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>688.09478</v>
+        <v>1562.26118</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2130.10007</v>
+        <v>2412.71985</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>516.7778499999999</v>
+        <v>579.09315</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>546.15459</v>
+        <v>948.3605399999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>855.5569199999999</v>
+        <v>1790.99267</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>763.2928199999999</v>
+        <v>3585.70102</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>490.56546</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>5559.5681</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1423.449</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2865.51394</v>
+        <v>3719.96198</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>4773.9327</v>
+        <v>6332.58431</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2537.76596</v>
+        <v>3208.9097</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>4649.37563</v>
+        <v>4357.966820000001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>15076.4896</v>
+        <v>17077.52943</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>18104.36538</v>
+        <v>17908.86697</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>5615.15207</v>
+        <v>14432.10267</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>15311.57696</v>
+        <v>10530.85422</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>12225.78476</v>
+        <v>8977.661480000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>30982.66421</v>
+        <v>35781.43178</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>11056.51542</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>28549.5645</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>4404.085</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>2143.79395</v>
+        <v>8098.9752</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>73.12557000000001</v>
+        <v>1108.80805</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>152.66748</v>
+        <v>798.00665</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>233.69299</v>
+        <v>232.17656</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>510.41607</v>
+        <v>22580.7414</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>53.40269</v>
+        <v>1139.90525</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>69.46908999999999</v>
+        <v>275.75977</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>120.30882</v>
+        <v>48.31294999999999</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>148.60066</v>
+        <v>533.7129699999999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>3634.09466</v>
+        <v>3763.97916</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>22330.92046</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>220.31312</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>14563.289</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>31467.25284</v>
+        <v>73751.63717999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>41382.6156</v>
+        <v>158867.91572</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>83916.60803999999</v>
+        <v>263238.27257</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>32133.43132</v>
+        <v>320823.34487</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>113952.93836</v>
+        <v>246883.70194</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>110849.17607</v>
+        <v>302093.51712</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>226198.46192</v>
+        <v>503419.68249</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>261167.83129</v>
+        <v>1317712.29228</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>209221.33446</v>
+        <v>532714.7946</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1357439.39116</v>
+        <v>5186722.42602</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>618979.58399</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1560886.04262</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3353739.141</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>284.35889</v>
+        <v>470.71522</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>180.45625</v>
+        <v>188.08051</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>207.05385</v>
+        <v>0.60485</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>64.68432</v>
+        <v>97.85116000000001</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>268.84977</v>
+        <v>81.37626999999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1075.48217</v>
+        <v>77.4335</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>321.39758</v>
+        <v>112.6027</v>
       </c>
       <c r="J41" s="48" t="n">
+        <v>56.59269999999999</v>
+      </c>
+      <c r="K41" s="48" t="n">
+        <v>7.59167</v>
+      </c>
+      <c r="L41" s="48" t="n">
+        <v>382.6737</v>
+      </c>
+      <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="K41" s="48" t="n">
-        <v>22.44195</v>
-      </c>
-      <c r="L41" s="48" t="n">
-        <v>120.59109</v>
-      </c>
-      <c r="M41" s="48" t="n">
-        <v>308.08593</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1009.801</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>44454.845</v>
+        <v>46143.12579</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>36407.35355</v>
@@ -2411,13 +2502,13 @@
         <v>906.9713399999999</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0.01</v>
+        <v>223.81195</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>29.60132</v>
+        <v>2e-05</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>16756.96984</v>
+        <v>20424.37434</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>22390.95692</v>
+        <v>26879.89708999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>19514.83501999999</v>
+        <v>39708.31426</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>13492.08368</v>
+        <v>24544.56874</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>35916.32453</v>
+        <v>38451.58871</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>59240.95273</v>
+        <v>146751.2507</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>38606.50011</v>
+        <v>172747.54675</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>47923.79927</v>
+        <v>159152.8241</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>72095.72442</v>
+        <v>339876.94243</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>137631.0104</v>
+        <v>585856.7312799999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>70292.26602</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2665789.55159</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>303224.513</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>56098.68337000001</v>
+        <v>86326.38134000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>56182.94021</v>
+        <v>101009.62745</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>71096.36466999998</v>
+        <v>126020.74963</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>102048.56275</v>
+        <v>235550.21047</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>101757.32597</v>
+        <v>166525.92995</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>138634.08099</v>
+        <v>275853.87909</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>172875.84073</v>
+        <v>380139.50424</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>207698.64409</v>
+        <v>352271.09461</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>231583.90963</v>
+        <v>459547.5832999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>632176.98555</v>
+        <v>907295.71144</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>571091.4855900001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1125103.16982</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2142807.666</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>54136.08021</v>
+        <v>84040.44234000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>53964.00296000001</v>
+        <v>99539.21484999999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>67162.47469</v>
+        <v>98871.45750000002</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>97096.99908000001</v>
+        <v>216749.31769</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>94108.90476999999</v>
+        <v>135926.2544</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>121112.04042</v>
+        <v>212951.40999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>143276.06529</v>
+        <v>233660.15837</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>173045.45913</v>
+        <v>240431.11111</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>199673.55685</v>
+        <v>276024.59417</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>484628.0118000001</v>
+        <v>817758.80164</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>459272.33167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>829873.57281</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>980085.275</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1962.60316</v>
+        <v>2285.939</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2218.93725</v>
+        <v>1470.4126</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3933.88998</v>
+        <v>27149.29213</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>4951.56367</v>
+        <v>18800.89278</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>7648.4212</v>
+        <v>30599.67555</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>17522.04057</v>
+        <v>62902.46909999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>29599.77544</v>
+        <v>146479.34587</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>34653.18495999999</v>
+        <v>111839.9835</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>31910.35278</v>
+        <v>183522.98913</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>147548.97375</v>
+        <v>89536.90979999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>111819.15392</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>295229.59701</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1162722.391</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>289584.98467</v>
+        <v>491930.49777</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>264170.52277</v>
+        <v>572978.8072799999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>310980.66019</v>
+        <v>787379.35707</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>305902.36179</v>
+        <v>409717.19121</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>324670.63348</v>
+        <v>443685.50335</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>284651.00627</v>
+        <v>409525.92362</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>230704.53421</v>
+        <v>367845.0061</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>516418.24699</v>
+        <v>415652.73601</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>324630.9819</v>
+        <v>288887.74006</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-150053.76022</v>
+        <v>-69875.62856</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>407264.67667</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-1923770.18538</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-102496.777</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>39806.73962000001</v>
+        <v>92789.91622999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>71424.79138</v>
+        <v>115827.53503</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>64590.81216</v>
+        <v>120840.72036</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>69580.58744</v>
+        <v>148907.55793</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>106535.17574</v>
+        <v>148600.56412</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>164308.72313</v>
+        <v>180692.63309</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>109313.86672</v>
+        <v>336179.42345</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>143405.26129</v>
+        <v>329680.20664</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>171217.99296</v>
+        <v>470446.62752</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>373220.85001</v>
+        <v>373127.22825</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>384304.0592</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>3857358.17662</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>810878.0870000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>12642.98816</v>
+        <v>12360.4269</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>17457.30707</v>
+        <v>23950.14142</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>7694.39719</v>
+        <v>8138.72672</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>10661.1072</v>
+        <v>29262.34723</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>29743.03103</v>
+        <v>21310.74112</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>8012.863479999999</v>
+        <v>37322.3079</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>18225.1348</v>
+        <v>32107.3222</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>6685.23216</v>
+        <v>10581.01688</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>6647.1973</v>
+        <v>50843.5015</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>74229.29899</v>
+        <v>74188.22809999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>31801.88633</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>30403.82657</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>27044.12</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>27163.75146</v>
+        <v>80429.48933</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>53967.48430999999</v>
+        <v>91877.39361000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>56896.41497</v>
+        <v>112701.99364</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>58919.48024</v>
+        <v>119645.2107</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>76792.14471000001</v>
+        <v>127289.823</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>156295.85965</v>
+        <v>143370.32519</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>91088.73192000001</v>
+        <v>304072.10125</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>136720.02913</v>
+        <v>319099.18976</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>164570.79566</v>
+        <v>419603.12602</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>298991.55102</v>
+        <v>298939.00015</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>352502.17287</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>3826954.35005</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>783833.9669999999</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>55327.32619</v>
+        <v>93457.90777000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>54755.50568</v>
+        <v>147657.26779</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>351026.41455</v>
+        <v>522491.0206699999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>76220.83867</v>
+        <v>167396.44223</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>92544.51827</v>
+        <v>161059.49055</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>193518.10813</v>
+        <v>260781.51014</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>90390.80108999999</v>
+        <v>161029.6709</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>319889.31791</v>
+        <v>323880.69364</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>134139.42159</v>
+        <v>374663.3711699999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>648990.69734</v>
+        <v>594696.4680700001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>308925.09755</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>379641.6173</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>389188.368</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1926.5838</v>
+        <v>3001.92886</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2133.14278</v>
+        <v>7898.4677</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>365.11075</v>
+        <v>1347.88082</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>738.3140500000001</v>
+        <v>5218.17175</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1489.72773</v>
+        <v>4357.73354</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>2830.57475</v>
+        <v>11822.19787</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>2523.66804</v>
+        <v>11860.02858</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>4152.750239999999</v>
+        <v>10504.45359</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>5628.35093</v>
+        <v>18452.36381</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>19863.21876</v>
+        <v>15404.36435</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>7899.5739</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>16034.48711</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>24478.568</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>9496.02074</v>
+        <v>15632.71789</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>8261.866820000001</v>
+        <v>21761.78583</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>10623.08123</v>
+        <v>21267.43862</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>10826.09289</v>
+        <v>30903.85341</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>16059.26104</v>
+        <v>32597.97019</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>11747.13978</v>
+        <v>40313.62948</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>16679.47842</v>
+        <v>43565.1602</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>44142.95343</v>
+        <v>47812.97182</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>26296.26123</v>
+        <v>45388.05943</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>147896.05351</v>
+        <v>83403.92879999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>42224.50448</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>57160.50738</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>54913.276</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>43904.72165000001</v>
+        <v>74823.26101999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>44360.49608</v>
+        <v>117997.01426</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>340038.22257</v>
+        <v>499875.70123</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>64656.43173</v>
+        <v>131274.41707</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>74995.5295</v>
+        <v>124103.78682</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>178940.3936</v>
+        <v>208645.68279</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>71187.65462999999</v>
+        <v>105604.48212</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>271593.61424</v>
+        <v>265563.26823</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>102214.80943</v>
+        <v>310822.94793</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>481231.42507</v>
+        <v>495888.17492</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>258801.01917</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>306446.62281</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>309796.524</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>274064.3981</v>
+        <v>491262.50623</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>280839.80847</v>
+        <v>541149.07452</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>24545.05780000001</v>
+        <v>385729.05676</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>299262.11056</v>
+        <v>391228.30691</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>338661.29095</v>
+        <v>431226.57692</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>255441.62127</v>
+        <v>329437.04657</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>249627.59984</v>
+        <v>542994.7586500001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>339934.19037</v>
+        <v>421452.24901</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>361709.55327</v>
+        <v>384670.99641</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-425823.60755</v>
+        <v>-291444.86838</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>482643.63832</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1553946.37394</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>319192.942</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>55640.13759000001</v>
+        <v>75922.91490999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>64098.4287</v>
+        <v>87219.17551</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>72091.34284</v>
+        <v>118520.98971</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>80799.86842</v>
+        <v>98850.79266999998</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>91449.14442999999</v>
+        <v>111157.87213</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>85848.89157000001</v>
+        <v>117255.21183</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>90913.21488000001</v>
+        <v>139805.85382</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>132748.71438</v>
+        <v>164573.74844</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>132400.13587</v>
+        <v>186227.54366</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>187892.53283</v>
+        <v>231525.81923</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>193583.61347</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>467030.28086</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>273745.268</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>218424.26051</v>
+        <v>415339.5913200001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>216741.37977</v>
+        <v>453929.89901</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-47546.28504</v>
+        <v>267208.06705</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>218462.24214</v>
+        <v>292377.51424</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>247212.14652</v>
+        <v>320068.70479</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>169592.7297</v>
+        <v>212181.83474</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>158714.38496</v>
+        <v>403188.90483</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>207185.47599</v>
+        <v>256878.50057</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>229309.4174</v>
+        <v>198443.45275</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-613716.14038</v>
+        <v>-522970.68761</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>289060.02485</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1086916.09308</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>45447.674</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>685</v>
+        <v>656</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>832</v>
+        <v>743</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>973</v>
+        <v>850</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1213</v>
+        <v>1011</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1143</v>
+        <v>924</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1140</v>
+        <v>896</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1132</v>
+        <v>895</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1331</v>
+        <v>929</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1493</v>
+        <v>998</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1018</v>
+        <v>799</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>677</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>